--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1232575.215290929</v>
+        <v>-1235130.398019459</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>16.34825474388504</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>75.41344378366128</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,13 +823,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>129.172181946439</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>248.6564574003641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>366.8184725435422</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>188.36157441425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>240.3639337179224</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>110.2680713042659</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>82.82214511884976</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>253.8293786295312</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>31.86562382405576</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>25.68848610258052</v>
       </c>
       <c r="E10" t="n">
-        <v>36.93693655601761</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>216.7094028874721</v>
+        <v>105.6507867899578</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936211</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V19" t="n">
-        <v>67.10592483573262</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261733</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352484</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,10 +3958,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1221.525483338121</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C2" t="n">
-        <v>852.5629663977095</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D2" t="n">
-        <v>494.2972677909589</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3309.092432978983</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3309.092432978983</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3055.56195625282</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2724.499068909249</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W2" t="n">
-        <v>2371.730413639134</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X2" t="n">
-        <v>1998.264655378055</v>
+        <v>2664.837261798364</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.125323402243</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="3">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.1808689801002</v>
+        <v>662.9318377313859</v>
       </c>
       <c r="C4" t="n">
-        <v>532.2446860521933</v>
+        <v>493.9956548034791</v>
       </c>
       <c r="D4" t="n">
-        <v>382.1280466398575</v>
+        <v>343.8790153911433</v>
       </c>
       <c r="E4" t="n">
-        <v>234.2149530574644</v>
+        <v>343.8790153911433</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>196.9890678932329</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4525,13 +4525,13 @@
         <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1331.611463851887</v>
+        <v>1293.362432603173</v>
       </c>
       <c r="X4" t="n">
-        <v>1103.62191295387</v>
+        <v>1065.372881705156</v>
       </c>
       <c r="Y4" t="n">
-        <v>882.8293338103399</v>
+        <v>844.5803025616257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.277735635578</v>
+        <v>1468.793142759723</v>
       </c>
       <c r="C5" t="n">
-        <v>916.3152186951659</v>
+        <v>1099.830625819312</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>741.5649272125613</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>741.5649272125613</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>734.6194264633579</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2929.363857413342</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2598.300970069771</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.482665936591</v>
+        <v>2245.532314799657</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.016907675511</v>
+        <v>2245.532314799657</v>
       </c>
       <c r="Y5" t="n">
-        <v>1671.877575699699</v>
+        <v>1855.392982823845</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
         <v>66.5121164321834</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1726.082200639692</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1504.315585209218</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1504.315585209218</v>
       </c>
       <c r="V7" t="n">
-        <v>1362.84706459768</v>
+        <v>1249.631097003331</v>
       </c>
       <c r="W7" t="n">
-        <v>1073.429894560719</v>
+        <v>960.2139269663701</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4403436627018</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.730933054506</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C8" t="n">
-        <v>1306.768416114094</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>948.5027175073435</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>562.7144649090992</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>151.7285601194916</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>140.6965140048922</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379707</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118627</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.330773118627</v>
+        <v>2619.198073544676</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>661.957801444442</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="C10" t="n">
-        <v>661.957801444442</v>
+        <v>385.5672164724183</v>
       </c>
       <c r="D10" t="n">
-        <v>661.957801444442</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1361.01298720966</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.595817172699</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>843.6062662746817</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.6062662746817</v>
+        <v>554.5033994003252</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637309</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684178</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.15024091081</v>
@@ -5212,31 +5212,31 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
         <v>1501.108204237296</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E16" t="n">
         <v>240.7066105458823</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908938</v>
@@ -5665,10 +5665,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1620.602091394371</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.18492135741</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,13 +5768,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5823,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,19 +6880,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,19 +7117,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345477</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7597,13 +7597,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,28 +7804,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931273</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>92.8395070442908</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>294.3176568948078</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>36.8536263125892</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>37.86654093622693</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22838,13 +22838,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>62.63359754465203</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>62.63359754465365</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.402303949491753e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>69.47507150177205</v>
+        <v>180.5336875992863</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345294812</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462226</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V19" t="n">
-        <v>185.0317184880954</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1243707.387792519</v>
+        <v>1243707.387792518</v>
       </c>
     </row>
     <row r="8">
@@ -26314,10 +26314,10 @@
         <v>153448.6945369144</v>
       </c>
       <c r="C2" t="n">
-        <v>183612.6304874391</v>
+        <v>183612.6304874392</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302514</v>
@@ -26326,22 +26326,22 @@
         <v>181607.9849302514</v>
       </c>
       <c r="G2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="H2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="I2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="I2" t="n">
-        <v>181607.9849302513</v>
-      </c>
-      <c r="J2" t="n">
-        <v>181607.9849302513</v>
-      </c>
       <c r="K2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26418,13 @@
         <v>13430.06689216532</v>
       </c>
       <c r="C4" t="n">
-        <v>89948.20693708509</v>
+        <v>89948.20693708515</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
@@ -26433,28 +26433,28 @@
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184277</v>
+      </c>
+      <c r="J4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="J4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="K4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>21597.66737493623</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="M4" t="n">
         <v>21597.66737493622</v>
       </c>
       <c r="N4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.66737493622</v>
       </c>
       <c r="O4" t="n">
-        <v>21597.66737493622</v>
+        <v>21597.6673749362</v>
       </c>
       <c r="P4" t="n">
         <v>21597.66737493622</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296660.058644237</v>
+        <v>-1297007.677574043</v>
       </c>
       <c r="C6" t="n">
-        <v>-14269.51701103929</v>
+        <v>-14281.98109695065</v>
       </c>
       <c r="D6" t="n">
-        <v>-15993.38522512345</v>
+        <v>-15993.38522512352</v>
       </c>
       <c r="E6" t="n">
-        <v>-258533.8148128544</v>
+        <v>-258568.5527382898</v>
       </c>
       <c r="F6" t="n">
-        <v>66878.64699450188</v>
+        <v>66843.90906906601</v>
       </c>
       <c r="G6" t="n">
-        <v>66878.6469945015</v>
+        <v>66843.90906906573</v>
       </c>
       <c r="H6" t="n">
-        <v>66878.64699450161</v>
+        <v>66843.90906906594</v>
       </c>
       <c r="I6" t="n">
-        <v>66878.64699450138</v>
+        <v>66843.90906906585</v>
       </c>
       <c r="J6" t="n">
-        <v>-150652.5554027758</v>
+        <v>-150687.2933282116</v>
       </c>
       <c r="K6" t="n">
-        <v>66878.64699450138</v>
+        <v>66843.90906906582</v>
       </c>
       <c r="L6" t="n">
-        <v>40544.89699698018</v>
+        <v>40544.89699698024</v>
       </c>
       <c r="M6" t="n">
-        <v>-25082.41294489996</v>
+        <v>-25082.41294489987</v>
       </c>
       <c r="N6" t="n">
-        <v>59972.61499061203</v>
+        <v>59972.614990612</v>
       </c>
       <c r="O6" t="n">
         <v>59972.61499061203</v>
       </c>
       <c r="P6" t="n">
-        <v>59972.61499061197</v>
+        <v>59972.61499061194</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26793,7 +26793,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.10325310991124</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>46.24343745483701</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>79.50095402717598</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>169.3154982049782</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>111.4435131414763</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>262.7421405632647</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9269869156318</v>
       </c>
       <c r="E10" t="n">
-        <v>109.4970260905516</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28500,52 +28500,52 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.319714707885093e-12</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
         <v>593.8732233669225</v>
@@ -31789,10 +31789,10 @@
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704892</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31923,31 +31923,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
         <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663277</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
-        <v>188.922057956159</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,7 +35978,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
